--- a/Code/Results/Cases/Case_3_181/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_181/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.09624239449137</v>
+        <v>15.62515252014563</v>
       </c>
       <c r="C2">
-        <v>11.12014522929403</v>
+        <v>9.811478452150341</v>
       </c>
       <c r="D2">
-        <v>6.305968926587724</v>
+        <v>9.917674862594623</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.83093540995808</v>
+        <v>29.46985944617</v>
       </c>
       <c r="G2">
-        <v>21.86907706582328</v>
+        <v>28.72111806352111</v>
       </c>
       <c r="H2">
-        <v>8.471188269197057</v>
+        <v>14.28172866198689</v>
       </c>
       <c r="I2">
-        <v>12.93934507605878</v>
+        <v>22.0327378918661</v>
       </c>
       <c r="J2">
-        <v>5.791266635394441</v>
+        <v>10.19790059459565</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.94076827532157</v>
+        <v>11.78708295704407</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.18687783593102</v>
+        <v>17.31632836771244</v>
       </c>
       <c r="O2">
-        <v>13.88791807204162</v>
+        <v>21.73491782278565</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.75661326029034</v>
+        <v>15.14697405513095</v>
       </c>
       <c r="C3">
-        <v>10.68764887025539</v>
+        <v>9.649048914558024</v>
       </c>
       <c r="D3">
-        <v>6.195518708063164</v>
+        <v>9.919213554014245</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.51125682626537</v>
+        <v>29.52078107744305</v>
       </c>
       <c r="G3">
-        <v>21.26790446423207</v>
+        <v>28.73729906796211</v>
       </c>
       <c r="H3">
-        <v>8.483176948304918</v>
+        <v>14.32272593277829</v>
       </c>
       <c r="I3">
-        <v>13.08784542960725</v>
+        <v>22.12957570788443</v>
       </c>
       <c r="J3">
-        <v>5.850065369610443</v>
+        <v>10.22257527959585</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.718965204247214</v>
+        <v>11.76818305355794</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.25029132375738</v>
+        <v>17.3484877459503</v>
       </c>
       <c r="O3">
-        <v>13.77500903697723</v>
+        <v>21.79220438846713</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.88372621408492</v>
+        <v>14.84678542920077</v>
       </c>
       <c r="C4">
-        <v>10.41248242453843</v>
+        <v>9.54730978386425</v>
       </c>
       <c r="D4">
-        <v>6.129199104775853</v>
+        <v>9.921465334789563</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.32936480089199</v>
+        <v>29.55895262571818</v>
       </c>
       <c r="G4">
-        <v>20.91466616933736</v>
+        <v>28.75650776443739</v>
       </c>
       <c r="H4">
-        <v>8.496106223091484</v>
+        <v>14.35019841037687</v>
       </c>
       <c r="I4">
-        <v>13.18956194171471</v>
+        <v>22.193230952739</v>
       </c>
       <c r="J4">
-        <v>5.887670493041171</v>
+        <v>10.23857906140492</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.582216421778146</v>
+        <v>11.75805213330639</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.2927578456837</v>
+        <v>17.36991327984076</v>
       </c>
       <c r="O4">
-        <v>13.71728485255063</v>
+        <v>21.8320993693921</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.5152979736272</v>
+        <v>14.72297732633399</v>
       </c>
       <c r="C5">
-        <v>10.29804619138196</v>
+        <v>9.505380163925988</v>
       </c>
       <c r="D5">
-        <v>6.10257835080609</v>
+        <v>9.922712608509702</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.25886857420121</v>
+        <v>29.57624174232339</v>
       </c>
       <c r="G5">
-        <v>20.77486427807659</v>
+        <v>28.76666346695142</v>
       </c>
       <c r="H5">
-        <v>8.502731486316753</v>
+        <v>14.36197187118806</v>
       </c>
       <c r="I5">
-        <v>13.23355256002391</v>
+        <v>22.22022579768477</v>
       </c>
       <c r="J5">
-        <v>5.903373218793651</v>
+        <v>10.24531585858988</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.526427021141808</v>
+        <v>11.75429739411953</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.31093383634978</v>
+        <v>17.37906738943455</v>
       </c>
       <c r="O5">
-        <v>13.69661425304319</v>
+        <v>21.8495418409848</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.45335079121775</v>
+        <v>14.70233521026688</v>
       </c>
       <c r="C6">
-        <v>10.27890860958578</v>
+        <v>9.498390420132445</v>
       </c>
       <c r="D6">
-        <v>6.098183277548091</v>
+        <v>9.92293965497819</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.24738169802819</v>
+        <v>29.57921722583015</v>
       </c>
       <c r="G6">
-        <v>20.75190479240867</v>
+        <v>28.76849027288688</v>
       </c>
       <c r="H6">
-        <v>8.503912257456694</v>
+        <v>14.36396176284162</v>
       </c>
       <c r="I6">
-        <v>13.24100751869903</v>
+        <v>22.22477196799108</v>
       </c>
       <c r="J6">
-        <v>5.906003512471666</v>
+        <v>10.24644750720768</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.517161769887065</v>
+        <v>11.75369657972793</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.31400403979723</v>
+        <v>17.38061299285594</v>
       </c>
       <c r="O6">
-        <v>13.69335215409481</v>
+        <v>21.85250965170732</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.87880904160055</v>
+        <v>14.84512145348212</v>
       </c>
       <c r="C7">
-        <v>10.41094826434877</v>
+        <v>9.54674616333979</v>
       </c>
       <c r="D7">
-        <v>6.128838410845651</v>
+        <v>9.92148081994535</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.32839938165641</v>
+        <v>29.55917877603673</v>
       </c>
       <c r="G7">
-        <v>20.91276377756338</v>
+        <v>28.75663530818447</v>
       </c>
       <c r="H7">
-        <v>8.496190139062273</v>
+        <v>14.35035485047229</v>
       </c>
       <c r="I7">
-        <v>13.19014506885695</v>
+        <v>22.19359074427107</v>
       </c>
       <c r="J7">
-        <v>5.887880732839714</v>
+        <v>10.23866904446871</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.581464176391836</v>
+        <v>11.75799997854266</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.29299947067215</v>
+        <v>17.37003502160492</v>
       </c>
       <c r="O7">
-        <v>13.71699462335232</v>
+        <v>21.83232980983914</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.6447525943143</v>
+        <v>15.46174533901936</v>
       </c>
       <c r="C8">
-        <v>10.97307889609949</v>
+        <v>9.755909590654788</v>
       </c>
       <c r="D8">
-        <v>6.267592205242482</v>
+        <v>9.917934753424465</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>19.71773147659319</v>
+        <v>29.48598262740016</v>
       </c>
       <c r="G8">
-        <v>21.65859083784717</v>
+        <v>28.72477071747652</v>
       </c>
       <c r="H8">
-        <v>8.474140017157227</v>
+        <v>14.2953870753349</v>
       </c>
       <c r="I8">
-        <v>12.98829353892519</v>
+        <v>22.06525635063181</v>
       </c>
       <c r="J8">
-        <v>5.811228889014584</v>
+        <v>10.20623161421862</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.864452402801072</v>
+        <v>11.78026233546459</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.20799942153389</v>
+        <v>17.32706874801295</v>
       </c>
       <c r="O8">
-        <v>13.84654211630672</v>
+        <v>21.75368919420436</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.7109496047039</v>
+        <v>16.61161069037694</v>
       </c>
       <c r="C9">
-        <v>11.99490202313344</v>
+        <v>10.1487023524569</v>
       </c>
       <c r="D9">
-        <v>6.55029935327607</v>
+        <v>9.9213050711687</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.59449914871097</v>
+        <v>29.39732950394592</v>
       </c>
       <c r="G9">
-        <v>23.24003468613229</v>
+        <v>28.73596443484823</v>
       </c>
       <c r="H9">
-        <v>8.477030975118177</v>
+        <v>14.20585101675016</v>
       </c>
       <c r="I9">
-        <v>12.68127242980402</v>
+        <v>21.84690817395827</v>
       </c>
       <c r="J9">
-        <v>5.672816710864478</v>
+        <v>10.14936947550584</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.411748607927683</v>
+        <v>11.83546726764621</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.07014917173516</v>
+        <v>17.25610807117304</v>
       </c>
       <c r="O9">
-        <v>14.19516866364731</v>
+        <v>21.63702183898411</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.72553878628339</v>
+        <v>17.41173732587275</v>
       </c>
       <c r="C10">
-        <v>12.69180820551776</v>
+        <v>10.42484340890823</v>
       </c>
       <c r="D10">
-        <v>6.762785119353985</v>
+        <v>9.930008642054872</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.3058480127713</v>
+        <v>29.36575046838841</v>
       </c>
       <c r="G10">
-        <v>24.46462557216844</v>
+        <v>28.78913071658335</v>
       </c>
       <c r="H10">
-        <v>8.509932037777833</v>
+        <v>14.15120583848246</v>
       </c>
       <c r="I10">
-        <v>12.51745768659869</v>
+        <v>21.70682270755463</v>
       </c>
       <c r="J10">
-        <v>5.578362280140409</v>
+        <v>10.1116727739461</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.8052787906195</v>
+        <v>11.88286188722982</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.98765993767906</v>
+        <v>17.21203824252591</v>
       </c>
       <c r="O10">
-        <v>14.51187490694087</v>
+        <v>21.57430796891384</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.59113849782355</v>
+        <v>17.7645062213983</v>
       </c>
       <c r="C11">
-        <v>12.99639899227671</v>
+        <v>10.54740178290301</v>
       </c>
       <c r="D11">
-        <v>6.860142076746391</v>
+        <v>9.935304257001807</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.64349828894084</v>
+        <v>29.35867857035989</v>
       </c>
       <c r="G11">
-        <v>25.03334012586507</v>
+        <v>28.8230436434345</v>
       </c>
       <c r="H11">
-        <v>8.532143550977823</v>
+        <v>14.1287660011363</v>
       </c>
       <c r="I11">
-        <v>12.45812110063791</v>
+        <v>21.64751586184641</v>
       </c>
       <c r="J11">
-        <v>5.536964118014456</v>
+        <v>10.09540237206673</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.981731113900432</v>
+        <v>11.90585943253437</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.95450022678273</v>
+        <v>17.19373246646055</v>
       </c>
       <c r="O11">
-        <v>14.66957372227334</v>
+        <v>21.55079226641928</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.91167355850968</v>
+        <v>17.89636818299537</v>
       </c>
       <c r="C12">
-        <v>13.10990150771693</v>
+        <v>10.59334310849499</v>
       </c>
       <c r="D12">
-        <v>6.897081119360402</v>
+        <v>9.937500180918784</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.77332564960841</v>
+        <v>29.35704896620915</v>
       </c>
       <c r="G12">
-        <v>25.25021786055924</v>
+        <v>28.83727851281085</v>
       </c>
       <c r="H12">
-        <v>8.541641431552307</v>
+        <v>14.12061650434213</v>
       </c>
       <c r="I12">
-        <v>12.43799121608094</v>
+        <v>21.62569399760605</v>
       </c>
       <c r="J12">
-        <v>5.521513938822956</v>
+        <v>10.08936692181964</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.04812825168994</v>
+        <v>11.91477031577785</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.94259684992916</v>
+        <v>17.18705034541754</v>
       </c>
       <c r="O12">
-        <v>14.73127802992117</v>
+        <v>21.54260961295095</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.84296197409796</v>
+        <v>17.86804767296143</v>
       </c>
       <c r="C13">
-        <v>13.08553923548687</v>
+        <v>10.583470118336</v>
       </c>
       <c r="D13">
-        <v>6.889122860606962</v>
+        <v>9.937018798995242</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.74527842086739</v>
+        <v>29.35735331811041</v>
       </c>
       <c r="G13">
-        <v>25.20344417729988</v>
+        <v>28.8341509503686</v>
       </c>
       <c r="H13">
-        <v>8.539546843824331</v>
+        <v>14.12235616472952</v>
       </c>
       <c r="I13">
-        <v>12.44221993657314</v>
+        <v>21.63036540926288</v>
       </c>
       <c r="J13">
-        <v>5.524831327610229</v>
+        <v>10.09066117639239</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.033847959265593</v>
+        <v>11.91284227786922</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.9451309641774</v>
+        <v>17.18847835567842</v>
       </c>
       <c r="O13">
-        <v>14.71790014518978</v>
+        <v>21.54433975343474</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.61765402160423</v>
+        <v>17.77538973148496</v>
       </c>
       <c r="C14">
-        <v>13.00577403737482</v>
+        <v>10.55119096013305</v>
       </c>
       <c r="D14">
-        <v>6.863179784838707</v>
+        <v>9.935481106647197</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.65414016781409</v>
+        <v>29.35852349581011</v>
       </c>
       <c r="G14">
-        <v>25.05115320821427</v>
+        <v>28.82418688240139</v>
       </c>
       <c r="H14">
-        <v>8.532902909123747</v>
+        <v>14.12808856197591</v>
       </c>
       <c r="I14">
-        <v>12.4564171961214</v>
+        <v>21.64570780499986</v>
       </c>
       <c r="J14">
-        <v>5.535688479909787</v>
+        <v>10.09490331338145</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.987202373638164</v>
+        <v>11.90658851008038</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.95350767880526</v>
+        <v>17.19317771976465</v>
       </c>
       <c r="O14">
-        <v>14.67461020940191</v>
+        <v>21.55010459312424</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.47870427957944</v>
+        <v>17.71840645029598</v>
       </c>
       <c r="C15">
-        <v>12.95667464421271</v>
+        <v>10.53135715240857</v>
       </c>
       <c r="D15">
-        <v>6.847297481221287</v>
+        <v>9.93456399769544</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.59856981921817</v>
+        <v>29.35937676788467</v>
       </c>
       <c r="G15">
-        <v>24.95806388374872</v>
+        <v>28.81826477381746</v>
       </c>
       <c r="H15">
-        <v>8.528976175603113</v>
+        <v>14.1316451439669</v>
       </c>
       <c r="I15">
-        <v>12.46542285910154</v>
+        <v>21.65518836563576</v>
       </c>
       <c r="J15">
-        <v>5.542368309683913</v>
+        <v>10.09751811381116</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.95857425544609</v>
+        <v>11.90278409391737</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.95872455308407</v>
+        <v>17.19608874010895</v>
       </c>
       <c r="O15">
-        <v>14.6483533823973</v>
+        <v>21.55372981573859</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.66795199622211</v>
+        <v>17.38844760373885</v>
       </c>
       <c r="C16">
-        <v>12.67164765716521</v>
+        <v>10.41676985670136</v>
       </c>
       <c r="D16">
-        <v>6.756434192968698</v>
+        <v>9.929689319279625</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.28405996076446</v>
+        <v>29.36635937666583</v>
       </c>
       <c r="G16">
-        <v>24.42767931878274</v>
+        <v>28.78710969628294</v>
       </c>
       <c r="H16">
-        <v>8.508630113675215</v>
+        <v>14.15272101935209</v>
       </c>
       <c r="I16">
-        <v>12.52165420770086</v>
+        <v>21.7107875454286</v>
       </c>
       <c r="J16">
-        <v>5.581099385186178</v>
+        <v>10.11275371147615</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.793690949695932</v>
+        <v>11.88138748955499</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.9899170096148</v>
+        <v>17.21326956710024</v>
       </c>
       <c r="O16">
-        <v>14.50184563247255</v>
+        <v>21.57594577354599</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.15760306337709</v>
+        <v>17.18307341033708</v>
       </c>
       <c r="C17">
-        <v>12.49356838233497</v>
+        <v>10.34566955514293</v>
       </c>
       <c r="D17">
-        <v>6.700850422687303</v>
+        <v>9.927040039076097</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.09467980356268</v>
+        <v>29.3725109384863</v>
       </c>
       <c r="G17">
-        <v>24.10517172236039</v>
+        <v>28.77048480088761</v>
       </c>
       <c r="H17">
-        <v>8.498036282088625</v>
+        <v>14.16626998019048</v>
       </c>
       <c r="I17">
-        <v>12.56014823952316</v>
+        <v>21.74602824520434</v>
       </c>
       <c r="J17">
-        <v>5.605262069651967</v>
+        <v>10.12232480934733</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.691843804021198</v>
+        <v>11.86862640430399</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.0101884463434</v>
+        <v>17.22425514553887</v>
       </c>
       <c r="O17">
-        <v>14.41547975773436</v>
+        <v>21.59085956811045</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.85927406523643</v>
+        <v>17.06389808315565</v>
       </c>
       <c r="C18">
-        <v>12.38997385052244</v>
+        <v>10.3044881880274</v>
       </c>
       <c r="D18">
-        <v>6.668947227135055</v>
+        <v>9.925642124122531</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.98707963581845</v>
+        <v>29.37673572675277</v>
       </c>
       <c r="G18">
-        <v>23.92077824566242</v>
+        <v>28.76183866157474</v>
       </c>
       <c r="H18">
-        <v>8.492622233744864</v>
+        <v>14.17429061689284</v>
       </c>
       <c r="I18">
-        <v>12.58370836382418</v>
+        <v>21.7667136174123</v>
       </c>
       <c r="J18">
-        <v>5.619307489451429</v>
+        <v>10.12791252194152</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.633025203104145</v>
+        <v>11.86142215112896</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.02225726566865</v>
+        <v>17.2307377421856</v>
       </c>
       <c r="O18">
-        <v>14.36708584618151</v>
+        <v>21.59990938435843</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.75744044028448</v>
+        <v>17.02337070851666</v>
       </c>
       <c r="C19">
-        <v>12.35469962529542</v>
+        <v>10.29049661016959</v>
       </c>
       <c r="D19">
-        <v>6.658157757822096</v>
+        <v>9.925190480519086</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.95087748952869</v>
+        <v>29.37828408937566</v>
       </c>
       <c r="G19">
-        <v>23.85854045330867</v>
+        <v>28.75906871334095</v>
       </c>
       <c r="H19">
-        <v>8.490904406039933</v>
+        <v>14.17704535629829</v>
       </c>
       <c r="I19">
-        <v>12.59192454453352</v>
+        <v>21.77378872416345</v>
       </c>
       <c r="J19">
-        <v>5.624088375450555</v>
+        <v>10.1298186382129</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.613070915175886</v>
+        <v>11.85900633560512</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.02641308385762</v>
+        <v>17.23296082025021</v>
       </c>
       <c r="O19">
-        <v>14.35091965158824</v>
+        <v>21.60305448305452</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.21242585074227</v>
+        <v>17.20504531228905</v>
       </c>
       <c r="C20">
-        <v>12.51264651391674</v>
+        <v>10.35326815469288</v>
       </c>
       <c r="D20">
-        <v>6.706760670902759</v>
+        <v>9.927309042336224</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.11470276828472</v>
+        <v>29.37178503757919</v>
       </c>
       <c r="G20">
-        <v>24.13939008774147</v>
+        <v>28.77215977793783</v>
       </c>
       <c r="H20">
-        <v>8.499093385710543</v>
+        <v>14.16480410950129</v>
       </c>
       <c r="I20">
-        <v>12.55590247350013</v>
+        <v>21.74223376652397</v>
       </c>
       <c r="J20">
-        <v>5.602674621933224</v>
+        <v>10.12129739692917</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.702710722206586</v>
+        <v>11.86997084299042</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.00798798200059</v>
+        <v>17.22306874467977</v>
       </c>
       <c r="O20">
-        <v>14.42454070823699</v>
+        <v>21.58922312955711</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.68402865080213</v>
+        <v>17.80265323241105</v>
       </c>
       <c r="C21">
-        <v>13.02925329274394</v>
+        <v>10.56068507876803</v>
       </c>
       <c r="D21">
-        <v>6.870798155049133</v>
+        <v>9.935927604646068</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.68085675054693</v>
+        <v>29.35815134056537</v>
       </c>
       <c r="G21">
-        <v>25.09584473278541</v>
+        <v>28.82707582822937</v>
       </c>
       <c r="H21">
-        <v>8.534824540680638</v>
+        <v>14.12639537231999</v>
       </c>
       <c r="I21">
-        <v>12.45218234381809</v>
+        <v>21.6411840934024</v>
       </c>
       <c r="J21">
-        <v>5.532493319476208</v>
+        <v>10.09365388443825</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.000915141387997</v>
+        <v>11.90841994209979</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.95102928611946</v>
+        <v>17.19179062566509</v>
       </c>
       <c r="O21">
-        <v>14.68727139039568</v>
+        <v>21.54839170924907</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.60358484066087</v>
+        <v>18.18313255433409</v>
       </c>
       <c r="C22">
-        <v>13.35614683101986</v>
+        <v>10.69349882137723</v>
       </c>
       <c r="D22">
-        <v>6.978414332749116</v>
+        <v>9.94267043429214</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.06230797414079</v>
+        <v>29.35535096009215</v>
       </c>
       <c r="G22">
-        <v>25.7297293857722</v>
+        <v>28.87108071290964</v>
       </c>
       <c r="H22">
-        <v>8.564532405404913</v>
+        <v>14.10332142684289</v>
       </c>
       <c r="I22">
-        <v>12.39810913992379</v>
+        <v>21.57885189295406</v>
       </c>
       <c r="J22">
-        <v>5.487945993452316</v>
+        <v>10.07632028748427</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.193331870441877</v>
+        <v>11.93472507664307</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.91762556449456</v>
+        <v>17.17280478141075</v>
       </c>
       <c r="O22">
-        <v>14.87057281193583</v>
+        <v>21.52591619157851</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.1166425503356</v>
+        <v>17.98102078683612</v>
       </c>
       <c r="C23">
-        <v>13.18267476786755</v>
+        <v>10.62287394742336</v>
       </c>
       <c r="D23">
-        <v>6.920949072160669</v>
+        <v>9.938970630145336</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.85769197713921</v>
+        <v>29.35628682445017</v>
       </c>
       <c r="G23">
-        <v>25.39065682757922</v>
+        <v>28.84685450970998</v>
       </c>
       <c r="H23">
-        <v>8.548080513385043</v>
+        <v>14.11545076842437</v>
       </c>
       <c r="I23">
-        <v>12.42566093858709</v>
+        <v>21.61178001244976</v>
       </c>
       <c r="J23">
-        <v>5.511600631283633</v>
+        <v>10.08550463204994</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.090877880928584</v>
+        <v>11.92057942350623</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.93509511869186</v>
+        <v>17.18280483443605</v>
       </c>
       <c r="O23">
-        <v>14.77167310312974</v>
+        <v>21.53752618529346</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.18765580612344</v>
+        <v>17.1951152423013</v>
       </c>
       <c r="C24">
-        <v>12.50402506917911</v>
+        <v>10.34983377520438</v>
       </c>
       <c r="D24">
-        <v>6.704088481534074</v>
+        <v>9.927187035897326</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.10564640420783</v>
+        <v>29.37211107375382</v>
       </c>
       <c r="G24">
-        <v>24.12391677426334</v>
+        <v>28.77139968040792</v>
       </c>
       <c r="H24">
-        <v>8.498613365482354</v>
+        <v>14.16546610960848</v>
       </c>
       <c r="I24">
-        <v>12.55781754383466</v>
+        <v>21.74394792648143</v>
       </c>
       <c r="J24">
-        <v>5.603843927511575</v>
+        <v>10.12176162478115</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.697798610859628</v>
+        <v>11.86936260993619</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.0089815227882</v>
+        <v>17.22360459676354</v>
       </c>
       <c r="O24">
-        <v>14.42044033322226</v>
+        <v>21.58996148183053</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.92355760272499</v>
+        <v>16.30782542469303</v>
       </c>
       <c r="C25">
-        <v>11.72762903504011</v>
+        <v>10.04449831112532</v>
       </c>
       <c r="D25">
-        <v>6.472859303054511</v>
+        <v>9.919294510368621</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.34534171444683</v>
+        <v>29.41542453951644</v>
       </c>
       <c r="G25">
-        <v>22.80049531282817</v>
+        <v>28.72503851612235</v>
       </c>
       <c r="H25">
-        <v>8.471035024152041</v>
+        <v>14.22811761932554</v>
       </c>
       <c r="I25">
-        <v>12.75406268309727</v>
+        <v>21.90240806369775</v>
       </c>
       <c r="J25">
-        <v>5.708989349297307</v>
+        <v>10.16403330919563</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.264933243978037</v>
+        <v>11.8193168204338</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.1042340882857</v>
+        <v>17.27388560070303</v>
       </c>
       <c r="O25">
-        <v>14.0904001942708</v>
+        <v>21.66455141250041</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_181/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_181/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.62515252014563</v>
+        <v>20.09624239449141</v>
       </c>
       <c r="C2">
-        <v>9.811478452150341</v>
+        <v>11.12014522929399</v>
       </c>
       <c r="D2">
-        <v>9.917674862594623</v>
+        <v>6.305968926587678</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.46985944617</v>
+        <v>19.8309354099579</v>
       </c>
       <c r="G2">
-        <v>28.72111806352111</v>
+        <v>21.86907706582311</v>
       </c>
       <c r="H2">
-        <v>14.28172866198689</v>
+        <v>8.471188269197013</v>
       </c>
       <c r="I2">
-        <v>22.0327378918661</v>
+        <v>12.93934507605862</v>
       </c>
       <c r="J2">
-        <v>10.19790059459565</v>
+        <v>5.791266635394409</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.78708295704407</v>
+        <v>7.940768275321532</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.31632836771244</v>
+        <v>12.18687783593095</v>
       </c>
       <c r="O2">
-        <v>21.73491782278565</v>
+        <v>13.88791807204149</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.14697405513095</v>
+        <v>18.75661326029035</v>
       </c>
       <c r="C3">
-        <v>9.649048914558024</v>
+        <v>10.68764887025518</v>
       </c>
       <c r="D3">
-        <v>9.919213554014245</v>
+        <v>6.195518708063068</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.52078107744305</v>
+        <v>19.51125682626543</v>
       </c>
       <c r="G3">
-        <v>28.73729906796211</v>
+        <v>21.26790446423222</v>
       </c>
       <c r="H3">
-        <v>14.32272593277829</v>
+        <v>8.483176948304978</v>
       </c>
       <c r="I3">
-        <v>22.12957570788443</v>
+        <v>13.08784542960729</v>
       </c>
       <c r="J3">
-        <v>10.22257527959585</v>
+        <v>5.850065369610507</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.76818305355794</v>
+        <v>7.718965204247258</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.3484877459503</v>
+        <v>12.25029132375741</v>
       </c>
       <c r="O3">
-        <v>21.79220438846713</v>
+        <v>13.7750090369773</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.84678542920077</v>
+        <v>17.88372621408493</v>
       </c>
       <c r="C4">
-        <v>9.54730978386425</v>
+        <v>10.41248242453823</v>
       </c>
       <c r="D4">
-        <v>9.921465334789563</v>
+        <v>6.1291991047756</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.55895262571818</v>
+        <v>19.32936480089185</v>
       </c>
       <c r="G4">
-        <v>28.75650776443739</v>
+        <v>20.91466616933735</v>
       </c>
       <c r="H4">
-        <v>14.35019841037687</v>
+        <v>8.496106223091475</v>
       </c>
       <c r="I4">
-        <v>22.193230952739</v>
+        <v>13.18956194171465</v>
       </c>
       <c r="J4">
-        <v>10.23857906140492</v>
+        <v>5.887670493041171</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.75805213330639</v>
+        <v>7.582216421778108</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.36991327984076</v>
+        <v>12.29275784568367</v>
       </c>
       <c r="O4">
-        <v>21.8320993693921</v>
+        <v>13.71728485255062</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.72297732633399</v>
+        <v>17.51529797362718</v>
       </c>
       <c r="C5">
-        <v>9.505380163925988</v>
+        <v>10.29804619138216</v>
       </c>
       <c r="D5">
-        <v>9.922712608509702</v>
+        <v>6.102578350806144</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.57624174232339</v>
+        <v>19.25886857420132</v>
       </c>
       <c r="G5">
-        <v>28.76666346695142</v>
+        <v>20.77486427807657</v>
       </c>
       <c r="H5">
-        <v>14.36197187118806</v>
+        <v>8.502731486316813</v>
       </c>
       <c r="I5">
-        <v>22.22022579768477</v>
+        <v>13.23355256002397</v>
       </c>
       <c r="J5">
-        <v>10.24531585858988</v>
+        <v>5.90337321879365</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.75429739411953</v>
+        <v>7.526427021141813</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.37906738943455</v>
+        <v>12.3109338363498</v>
       </c>
       <c r="O5">
-        <v>21.8495418409848</v>
+        <v>13.69661425304321</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.70233521026688</v>
+        <v>17.45335079121773</v>
       </c>
       <c r="C6">
-        <v>9.498390420132445</v>
+        <v>10.27890860958599</v>
       </c>
       <c r="D6">
-        <v>9.92293965497819</v>
+        <v>6.09818327754819</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.57921722583015</v>
+        <v>19.24738169802815</v>
       </c>
       <c r="G6">
-        <v>28.76849027288688</v>
+        <v>20.75190479240853</v>
       </c>
       <c r="H6">
-        <v>14.36396176284162</v>
+        <v>8.503912257456641</v>
       </c>
       <c r="I6">
-        <v>22.22477196799108</v>
+        <v>13.24100751869906</v>
       </c>
       <c r="J6">
-        <v>10.24644750720768</v>
+        <v>5.906003512471666</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.75369657972793</v>
+        <v>7.517161769887015</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.38061299285594</v>
+        <v>12.31400403979716</v>
       </c>
       <c r="O6">
-        <v>21.85250965170732</v>
+        <v>13.69335215409472</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.84512145348212</v>
+        <v>17.87880904160055</v>
       </c>
       <c r="C7">
-        <v>9.54674616333979</v>
+        <v>10.41094826434873</v>
       </c>
       <c r="D7">
-        <v>9.92148081994535</v>
+        <v>6.128838410845682</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.55917877603673</v>
+        <v>19.32839938165647</v>
       </c>
       <c r="G7">
-        <v>28.75663530818447</v>
+        <v>20.9127637775634</v>
       </c>
       <c r="H7">
-        <v>14.35035485047229</v>
+        <v>8.49619013906228</v>
       </c>
       <c r="I7">
-        <v>22.19359074427107</v>
+        <v>13.19014506885702</v>
       </c>
       <c r="J7">
-        <v>10.23866904446871</v>
+        <v>5.887880732839651</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.75799997854266</v>
+        <v>7.581464176391794</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.37003502160492</v>
+        <v>12.29299947067214</v>
       </c>
       <c r="O7">
-        <v>21.83232980983914</v>
+        <v>13.71699462335233</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.46174533901936</v>
+        <v>19.6447525943143</v>
       </c>
       <c r="C8">
-        <v>9.755909590654788</v>
+        <v>10.97307889609946</v>
       </c>
       <c r="D8">
-        <v>9.917934753424465</v>
+        <v>6.267592205242521</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.48598262740016</v>
+        <v>19.71773147659321</v>
       </c>
       <c r="G8">
-        <v>28.72477071747652</v>
+        <v>21.65859083784714</v>
       </c>
       <c r="H8">
-        <v>14.2953870753349</v>
+        <v>8.474140017157227</v>
       </c>
       <c r="I8">
-        <v>22.06525635063181</v>
+        <v>12.98829353892519</v>
       </c>
       <c r="J8">
-        <v>10.20623161421862</v>
+        <v>5.811228889014585</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.78026233546459</v>
+        <v>7.864452402801104</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.32706874801295</v>
+        <v>12.20799942153389</v>
       </c>
       <c r="O8">
-        <v>21.75368919420436</v>
+        <v>13.84654211630671</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.61161069037694</v>
+        <v>22.71094960470391</v>
       </c>
       <c r="C9">
-        <v>10.1487023524569</v>
+        <v>11.99490202313343</v>
       </c>
       <c r="D9">
-        <v>9.9213050711687</v>
+        <v>6.550299353276031</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.39732950394592</v>
+        <v>20.59449914871097</v>
       </c>
       <c r="G9">
-        <v>28.73596443484823</v>
+        <v>23.24003468613234</v>
       </c>
       <c r="H9">
-        <v>14.20585101675016</v>
+        <v>8.47703097511828</v>
       </c>
       <c r="I9">
-        <v>21.84690817395827</v>
+        <v>12.68127242980404</v>
       </c>
       <c r="J9">
-        <v>10.14936947550584</v>
+        <v>5.672816710864546</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.83546726764621</v>
+        <v>8.411748607927686</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.25610807117304</v>
+        <v>12.07014917173515</v>
       </c>
       <c r="O9">
-        <v>21.63702183898411</v>
+        <v>14.19516866364733</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.41173732587275</v>
+        <v>24.72553878628342</v>
       </c>
       <c r="C10">
-        <v>10.42484340890823</v>
+        <v>12.69180820551771</v>
       </c>
       <c r="D10">
-        <v>9.930008642054872</v>
+        <v>6.762785119354055</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.36575046838841</v>
+        <v>21.30584801277124</v>
       </c>
       <c r="G10">
-        <v>28.78913071658335</v>
+        <v>24.46462557216842</v>
       </c>
       <c r="H10">
-        <v>14.15120583848246</v>
+        <v>8.509932037777794</v>
       </c>
       <c r="I10">
-        <v>21.70682270755463</v>
+        <v>12.51745768659859</v>
       </c>
       <c r="J10">
-        <v>10.1116727739461</v>
+        <v>5.57836228014041</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.88286188722982</v>
+        <v>8.805278790619553</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.21203824252591</v>
+        <v>11.98765993767897</v>
       </c>
       <c r="O10">
-        <v>21.57430796891384</v>
+        <v>14.51187490694079</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.7645062213983</v>
+        <v>25.59113849782362</v>
       </c>
       <c r="C11">
-        <v>10.54740178290301</v>
+        <v>12.99639899227661</v>
       </c>
       <c r="D11">
-        <v>9.935304257001807</v>
+        <v>6.860142076746384</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.35867857035989</v>
+        <v>21.64349828894068</v>
       </c>
       <c r="G11">
-        <v>28.8230436434345</v>
+        <v>25.03334012586497</v>
       </c>
       <c r="H11">
-        <v>14.1287660011363</v>
+        <v>8.532143550977739</v>
       </c>
       <c r="I11">
-        <v>21.64751586184641</v>
+        <v>12.45812110063771</v>
       </c>
       <c r="J11">
-        <v>10.09540237206673</v>
+        <v>5.536964118014331</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.90585943253437</v>
+        <v>8.981731113900388</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.19373246646055</v>
+        <v>11.95450022678267</v>
       </c>
       <c r="O11">
-        <v>21.55079226641928</v>
+        <v>14.6695737222732</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.89636818299537</v>
+        <v>25.91167355850971</v>
       </c>
       <c r="C12">
-        <v>10.59334310849499</v>
+        <v>13.10990150771694</v>
       </c>
       <c r="D12">
-        <v>9.937500180918784</v>
+        <v>6.897081119360436</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.35704896620915</v>
+        <v>21.77332564960834</v>
       </c>
       <c r="G12">
-        <v>28.83727851281085</v>
+        <v>25.25021786055919</v>
       </c>
       <c r="H12">
-        <v>14.12061650434213</v>
+        <v>8.54164143155227</v>
       </c>
       <c r="I12">
-        <v>21.62569399760605</v>
+        <v>12.43799121608084</v>
       </c>
       <c r="J12">
-        <v>10.08936692181964</v>
+        <v>5.521513938822988</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.91477031577785</v>
+        <v>9.04812825168994</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.18705034541754</v>
+        <v>11.94259684992913</v>
       </c>
       <c r="O12">
-        <v>21.54260961295095</v>
+        <v>14.73127802992109</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.86804767296143</v>
+        <v>25.84296197409791</v>
       </c>
       <c r="C13">
-        <v>10.583470118336</v>
+        <v>13.08553923548705</v>
       </c>
       <c r="D13">
-        <v>9.937018798995242</v>
+        <v>6.889122860606964</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.35735331811041</v>
+        <v>21.74527842086748</v>
       </c>
       <c r="G13">
-        <v>28.8341509503686</v>
+        <v>25.20344417730003</v>
       </c>
       <c r="H13">
-        <v>14.12235616472952</v>
+        <v>8.539546843824359</v>
       </c>
       <c r="I13">
-        <v>21.63036540926288</v>
+        <v>12.44221993657333</v>
       </c>
       <c r="J13">
-        <v>10.09066117639239</v>
+        <v>5.524831327610259</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.91284227786922</v>
+        <v>9.033847959265573</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.18847835567842</v>
+        <v>11.94513096417752</v>
       </c>
       <c r="O13">
-        <v>21.54433975343474</v>
+        <v>14.71790014518987</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.77538973148496</v>
+        <v>25.61765402160423</v>
       </c>
       <c r="C14">
-        <v>10.55119096013305</v>
+        <v>13.00577403737499</v>
       </c>
       <c r="D14">
-        <v>9.935481106647197</v>
+        <v>6.863179784838613</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.35852349581011</v>
+        <v>21.65414016781407</v>
       </c>
       <c r="G14">
-        <v>28.82418688240139</v>
+        <v>25.0511532082143</v>
       </c>
       <c r="H14">
-        <v>14.12808856197591</v>
+        <v>8.53290290912375</v>
       </c>
       <c r="I14">
-        <v>21.64570780499986</v>
+        <v>12.45641719612146</v>
       </c>
       <c r="J14">
-        <v>10.09490331338145</v>
+        <v>5.535688479909754</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.90658851008038</v>
+        <v>8.987202373638102</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.19317771976465</v>
+        <v>11.95350767880529</v>
       </c>
       <c r="O14">
-        <v>21.55010459312424</v>
+        <v>14.67461020940192</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.71840645029598</v>
+        <v>25.47870427957947</v>
       </c>
       <c r="C15">
-        <v>10.53135715240857</v>
+        <v>12.95667464421268</v>
       </c>
       <c r="D15">
-        <v>9.93456399769544</v>
+        <v>6.847297481221252</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.35937676788467</v>
+        <v>21.59856981921802</v>
       </c>
       <c r="G15">
-        <v>28.81826477381746</v>
+        <v>24.9580638837486</v>
       </c>
       <c r="H15">
-        <v>14.1316451439669</v>
+        <v>8.528976175603066</v>
       </c>
       <c r="I15">
-        <v>21.65518836563576</v>
+        <v>12.46542285910144</v>
       </c>
       <c r="J15">
-        <v>10.09751811381116</v>
+        <v>5.542368309683882</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.90278409391737</v>
+        <v>8.95857425544609</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.19608874010895</v>
+        <v>11.95872455308401</v>
       </c>
       <c r="O15">
-        <v>21.55372981573859</v>
+        <v>14.64835338239721</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.38844760373885</v>
+        <v>24.66795199622216</v>
       </c>
       <c r="C16">
-        <v>10.41676985670136</v>
+        <v>12.6716476571649</v>
       </c>
       <c r="D16">
-        <v>9.929689319279625</v>
+        <v>6.756434192968559</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>29.36635937666583</v>
+        <v>21.28405996076449</v>
       </c>
       <c r="G16">
-        <v>28.78710969628294</v>
+        <v>24.42767931878282</v>
       </c>
       <c r="H16">
-        <v>14.15272101935209</v>
+        <v>8.508630113675233</v>
       </c>
       <c r="I16">
-        <v>21.7107875454286</v>
+        <v>12.52165420770084</v>
       </c>
       <c r="J16">
-        <v>10.11275371147615</v>
+        <v>5.581099385186178</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.88138748955499</v>
+        <v>8.793690949695911</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.21326956710024</v>
+        <v>11.98991700961484</v>
       </c>
       <c r="O16">
-        <v>21.57594577354599</v>
+        <v>14.50184563247261</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.18307341033708</v>
+        <v>24.15760306337711</v>
       </c>
       <c r="C17">
-        <v>10.34566955514293</v>
+        <v>12.49356838233502</v>
       </c>
       <c r="D17">
-        <v>9.927040039076097</v>
+        <v>6.70085042268729</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>29.3725109384863</v>
+        <v>21.09467980356277</v>
       </c>
       <c r="G17">
-        <v>28.77048480088761</v>
+        <v>24.10517172236043</v>
       </c>
       <c r="H17">
-        <v>14.16626998019048</v>
+        <v>8.498036282088725</v>
       </c>
       <c r="I17">
-        <v>21.74602824520434</v>
+        <v>12.56014823952328</v>
       </c>
       <c r="J17">
-        <v>10.12232480934733</v>
+        <v>5.605262069652032</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.86862640430399</v>
+        <v>8.691843804021216</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.22425514553887</v>
+        <v>12.01018844634345</v>
       </c>
       <c r="O17">
-        <v>21.59085956811045</v>
+        <v>14.41547975773441</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.06389808315565</v>
+        <v>23.85927406523642</v>
       </c>
       <c r="C18">
-        <v>10.3044881880274</v>
+        <v>12.38997385052226</v>
       </c>
       <c r="D18">
-        <v>9.925642124122531</v>
+        <v>6.668947227135007</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.37673572675277</v>
+        <v>20.98707963581855</v>
       </c>
       <c r="G18">
-        <v>28.76183866157474</v>
+        <v>23.92077824566256</v>
       </c>
       <c r="H18">
-        <v>14.17429061689284</v>
+        <v>8.492622233744926</v>
       </c>
       <c r="I18">
-        <v>21.7667136174123</v>
+        <v>12.58370836382428</v>
       </c>
       <c r="J18">
-        <v>10.12791252194152</v>
+        <v>5.619307489451429</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.86142215112896</v>
+        <v>8.633025203104145</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.2307377421856</v>
+        <v>12.02225726566867</v>
       </c>
       <c r="O18">
-        <v>21.59990938435843</v>
+        <v>14.36708584618165</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.02337070851666</v>
+        <v>23.75744044028447</v>
       </c>
       <c r="C19">
-        <v>10.29049661016959</v>
+        <v>12.35469962529523</v>
       </c>
       <c r="D19">
-        <v>9.925190480519086</v>
+        <v>6.658157757822053</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.37828408937566</v>
+        <v>20.95087748952874</v>
       </c>
       <c r="G19">
-        <v>28.75906871334095</v>
+        <v>23.85854045330882</v>
       </c>
       <c r="H19">
-        <v>14.17704535629829</v>
+        <v>8.490904406039949</v>
       </c>
       <c r="I19">
-        <v>21.77378872416345</v>
+        <v>12.59192454453359</v>
       </c>
       <c r="J19">
-        <v>10.1298186382129</v>
+        <v>5.624088375450622</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.85900633560512</v>
+        <v>8.613070915175918</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.23296082025021</v>
+        <v>12.02641308385764</v>
       </c>
       <c r="O19">
-        <v>21.60305448305452</v>
+        <v>14.35091965158831</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.20504531228905</v>
+        <v>24.21242585074229</v>
       </c>
       <c r="C20">
-        <v>10.35326815469288</v>
+        <v>12.51264651391688</v>
       </c>
       <c r="D20">
-        <v>9.927309042336224</v>
+        <v>6.706760670902799</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.37178503757919</v>
+        <v>21.11470276828484</v>
       </c>
       <c r="G20">
-        <v>28.77215977793783</v>
+        <v>24.13939008774162</v>
       </c>
       <c r="H20">
-        <v>14.16480410950129</v>
+        <v>8.499093385710548</v>
       </c>
       <c r="I20">
-        <v>21.74223376652397</v>
+        <v>12.55590247350024</v>
       </c>
       <c r="J20">
-        <v>10.12129739692917</v>
+        <v>5.602674621933356</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.86997084299042</v>
+        <v>8.702710722206616</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.22306874467977</v>
+        <v>12.00798798200061</v>
       </c>
       <c r="O20">
-        <v>21.58922312955711</v>
+        <v>14.42454070823707</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.80265323241105</v>
+        <v>25.68402865080211</v>
       </c>
       <c r="C21">
-        <v>10.56068507876803</v>
+        <v>13.02925329274395</v>
       </c>
       <c r="D21">
-        <v>9.935927604646068</v>
+        <v>6.87079815504912</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.35815134056537</v>
+        <v>21.68085675054695</v>
       </c>
       <c r="G21">
-        <v>28.82707582822937</v>
+        <v>25.09584473278545</v>
       </c>
       <c r="H21">
-        <v>14.12639537231999</v>
+        <v>8.534824540680638</v>
       </c>
       <c r="I21">
-        <v>21.6411840934024</v>
+        <v>12.45218234381816</v>
       </c>
       <c r="J21">
-        <v>10.09365388443825</v>
+        <v>5.532493319476148</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.90841994209979</v>
+        <v>9.000915141387946</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.19179062566509</v>
+        <v>11.95102928611946</v>
       </c>
       <c r="O21">
-        <v>21.54839170924907</v>
+        <v>14.68727139039572</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.18313255433409</v>
+        <v>26.60358484066095</v>
       </c>
       <c r="C22">
-        <v>10.69349882137723</v>
+        <v>13.35614683101991</v>
       </c>
       <c r="D22">
-        <v>9.94267043429214</v>
+        <v>6.978414332749154</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.35535096009215</v>
+        <v>22.06230797414081</v>
       </c>
       <c r="G22">
-        <v>28.87108071290964</v>
+        <v>25.72972938577226</v>
       </c>
       <c r="H22">
-        <v>14.10332142684289</v>
+        <v>8.564532405404881</v>
       </c>
       <c r="I22">
-        <v>21.57885189295406</v>
+        <v>12.39810913992382</v>
       </c>
       <c r="J22">
-        <v>10.07632028748427</v>
+        <v>5.487945993452349</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.93472507664307</v>
+        <v>9.193331870441865</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.17280478141075</v>
+        <v>11.91762556449457</v>
       </c>
       <c r="O22">
-        <v>21.52591619157851</v>
+        <v>14.87057281193583</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.98102078683612</v>
+        <v>26.11664255033561</v>
       </c>
       <c r="C23">
-        <v>10.62287394742336</v>
+        <v>13.18267476786743</v>
       </c>
       <c r="D23">
-        <v>9.938970630145336</v>
+        <v>6.920949072160538</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.35628682445017</v>
+        <v>21.85769197713925</v>
       </c>
       <c r="G23">
-        <v>28.84685450970998</v>
+        <v>25.39065682757935</v>
       </c>
       <c r="H23">
-        <v>14.11545076842437</v>
+        <v>8.548080513385084</v>
       </c>
       <c r="I23">
-        <v>21.61178001244976</v>
+        <v>12.42566093858719</v>
       </c>
       <c r="J23">
-        <v>10.08550463204994</v>
+        <v>5.511600631283634</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.92057942350623</v>
+        <v>9.090877880928552</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.18280483443605</v>
+        <v>11.9350951186919</v>
       </c>
       <c r="O23">
-        <v>21.53752618529346</v>
+        <v>14.77167310312982</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.1951152423013</v>
+        <v>24.18765580612343</v>
       </c>
       <c r="C24">
-        <v>10.34983377520438</v>
+        <v>12.50402506917915</v>
       </c>
       <c r="D24">
-        <v>9.927187035897326</v>
+        <v>6.70408848153395</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.37211107375382</v>
+        <v>21.10564640420786</v>
       </c>
       <c r="G24">
-        <v>28.77139968040792</v>
+        <v>24.1239167742635</v>
       </c>
       <c r="H24">
-        <v>14.16546610960848</v>
+        <v>8.498613365482406</v>
       </c>
       <c r="I24">
-        <v>21.74394792648143</v>
+        <v>12.55781754383477</v>
       </c>
       <c r="J24">
-        <v>10.12176162478115</v>
+        <v>5.603843927511514</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.86936260993619</v>
+        <v>8.697798610859566</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.22360459676354</v>
+        <v>12.00898152278829</v>
       </c>
       <c r="O24">
-        <v>21.58996148183053</v>
+        <v>14.42044033322234</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.30782542469303</v>
+        <v>21.92355760272494</v>
       </c>
       <c r="C25">
-        <v>10.04449831112532</v>
+        <v>11.7276290350401</v>
       </c>
       <c r="D25">
-        <v>9.919294510368621</v>
+        <v>6.472859303054467</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.41542453951644</v>
+        <v>20.34534171444685</v>
       </c>
       <c r="G25">
-        <v>28.72503851612235</v>
+        <v>22.80049531282828</v>
       </c>
       <c r="H25">
-        <v>14.22811761932554</v>
+        <v>8.471035024152055</v>
       </c>
       <c r="I25">
-        <v>21.90240806369775</v>
+        <v>12.75406268309735</v>
       </c>
       <c r="J25">
-        <v>10.16403330919563</v>
+        <v>5.708989349297311</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.8193168204338</v>
+        <v>8.264933243977996</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.27388560070303</v>
+        <v>12.10423408828568</v>
       </c>
       <c r="O25">
-        <v>21.66455141250041</v>
+        <v>14.09040019427086</v>
       </c>
     </row>
   </sheetData>
